--- a/observations/orbit_plans/mtp034/nomad_mtp034_plan_generic.xlsx
+++ b/observations/orbit_plans/mtp034/nomad_mtp034_plan_generic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp034\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522A2969-A5EC-4A0F-B6CF-84EBA4E8175D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE40713-8816-47B0-9B43-CC240EF88A70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1168,9 +1168,6 @@
     <t>2020 NOV 19 15:50:47</t>
   </si>
   <si>
-    <t xml:space="preserve">&amp;mergedMatch:OLYMPUS MONS; </t>
-  </si>
-  <si>
     <t>2020 NOV 19 17:48:42</t>
   </si>
   <si>
@@ -1640,6 +1637,9 @@
   </si>
   <si>
     <t xml:space="preserve">&amp;LST=14.3hrs; &amp;Angle=35; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;grazingMatch:OLYMPUS MONS; </t>
   </si>
 </sst>
 </file>
@@ -2017,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2417,7 +2417,7 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I17" t="s">
         <v>8</v>
@@ -2715,13 +2715,13 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H31" t="s">
         <v>18</v>
@@ -2801,7 +2801,7 @@
         <v>70</v>
       </c>
       <c r="H35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I35" t="s">
         <v>8</v>
@@ -3059,7 +3059,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I50" t="s">
         <v>8</v>
@@ -3236,7 +3236,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I62" t="s">
         <v>8</v>
@@ -3517,7 +3517,7 @@
         <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I81" t="s">
         <v>8</v>
@@ -3786,7 +3786,7 @@
         <v>3</v>
       </c>
       <c r="H100" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I100" t="s">
         <v>8</v>
@@ -3963,7 +3963,7 @@
         <v>3</v>
       </c>
       <c r="H112" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I112" t="s">
         <v>8</v>
@@ -4140,7 +4140,7 @@
         <v>3</v>
       </c>
       <c r="H124" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I124" t="s">
         <v>8</v>
@@ -4317,7 +4317,7 @@
         <v>3</v>
       </c>
       <c r="H136" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I136" t="s">
         <v>8</v>
@@ -4514,7 +4514,7 @@
         <v>3</v>
       </c>
       <c r="H149" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I149" t="s">
         <v>8</v>
@@ -4691,7 +4691,7 @@
         <v>3</v>
       </c>
       <c r="H161" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I161" t="s">
         <v>8</v>
@@ -4873,7 +4873,7 @@
         <v>3</v>
       </c>
       <c r="H174" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I174" t="s">
         <v>8</v>
@@ -5061,7 +5061,7 @@
         <v>3</v>
       </c>
       <c r="H187" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I187" t="s">
         <v>8</v>
@@ -5225,7 +5225,7 @@
         <v>3</v>
       </c>
       <c r="H200" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I200" t="s">
         <v>8</v>
@@ -5520,7 +5520,7 @@
         <v>3</v>
       </c>
       <c r="H220" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I220" t="s">
         <v>8</v>
@@ -5785,7 +5785,7 @@
         <v>380</v>
       </c>
       <c r="D234" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H234" t="s">
         <v>18</v>
@@ -5797,7 +5797,7 @@
         <v>381</v>
       </c>
       <c r="M234" t="s">
-        <v>382</v>
+        <v>539</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="L235" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M235" t="s">
         <v>116</v>
@@ -5825,10 +5825,10 @@
         <v>8</v>
       </c>
       <c r="L236" t="s">
+        <v>383</v>
+      </c>
+      <c r="M236" t="s">
         <v>384</v>
-      </c>
-      <c r="M236" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -5848,10 +5848,10 @@
         <v>8</v>
       </c>
       <c r="L237" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M237" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -5874,7 +5874,7 @@
         <v>8</v>
       </c>
       <c r="L238" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M238" t="s">
         <v>116</v>
@@ -5891,7 +5891,7 @@
         <v>8</v>
       </c>
       <c r="L239" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M239" t="s">
         <v>116</v>
@@ -5923,10 +5923,10 @@
         <v>8</v>
       </c>
       <c r="L240" t="s">
+        <v>388</v>
+      </c>
+      <c r="M240" t="s">
         <v>389</v>
-      </c>
-      <c r="M240" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -5940,7 +5940,7 @@
         <v>8</v>
       </c>
       <c r="L241" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M241" t="s">
         <v>116</v>
@@ -5972,7 +5972,7 @@
         <v>8</v>
       </c>
       <c r="L242" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M242" t="s">
         <v>116</v>
@@ -6007,7 +6007,7 @@
         <v>8</v>
       </c>
       <c r="L243" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M243" t="s">
         <v>116</v>
@@ -6021,10 +6021,10 @@
         <v>8</v>
       </c>
       <c r="L244" t="s">
+        <v>393</v>
+      </c>
+      <c r="M244" t="s">
         <v>394</v>
-      </c>
-      <c r="M244" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -6053,10 +6053,10 @@
         <v>8</v>
       </c>
       <c r="L245" t="s">
+        <v>395</v>
+      </c>
+      <c r="M245" t="s">
         <v>396</v>
-      </c>
-      <c r="M245" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -6064,13 +6064,13 @@
         <v>3</v>
       </c>
       <c r="H246" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I246" t="s">
         <v>8</v>
       </c>
       <c r="L246" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M246" t="s">
         <v>116</v>
@@ -6102,10 +6102,10 @@
         <v>8</v>
       </c>
       <c r="L247" t="s">
+        <v>398</v>
+      </c>
+      <c r="M247" t="s">
         <v>399</v>
-      </c>
-      <c r="M247" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -6116,10 +6116,10 @@
         <v>8</v>
       </c>
       <c r="L248" t="s">
+        <v>400</v>
+      </c>
+      <c r="M248" t="s">
         <v>401</v>
-      </c>
-      <c r="M248" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -6130,10 +6130,10 @@
         <v>8</v>
       </c>
       <c r="L249" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M249" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -6162,10 +6162,10 @@
         <v>8</v>
       </c>
       <c r="L250" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M250" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -6197,10 +6197,10 @@
         <v>8</v>
       </c>
       <c r="L251" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M251" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -6211,10 +6211,10 @@
         <v>8</v>
       </c>
       <c r="L252" t="s">
+        <v>405</v>
+      </c>
+      <c r="M252" t="s">
         <v>406</v>
-      </c>
-      <c r="M252" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -6243,10 +6243,10 @@
         <v>8</v>
       </c>
       <c r="L253" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M253" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -6254,16 +6254,16 @@
         <v>3</v>
       </c>
       <c r="H254" t="s">
+        <v>408</v>
+      </c>
+      <c r="I254" t="s">
+        <v>8</v>
+      </c>
+      <c r="L254" t="s">
         <v>409</v>
       </c>
-      <c r="I254" t="s">
-        <v>8</v>
-      </c>
-      <c r="L254" t="s">
+      <c r="M254" t="s">
         <v>410</v>
-      </c>
-      <c r="M254" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -6292,10 +6292,10 @@
         <v>8</v>
       </c>
       <c r="L255" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M255" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -6306,10 +6306,10 @@
         <v>8</v>
       </c>
       <c r="L256" t="s">
+        <v>412</v>
+      </c>
+      <c r="M256" t="s">
         <v>413</v>
-      </c>
-      <c r="M256" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -6317,7 +6317,7 @@
         <v>14</v>
       </c>
       <c r="L257" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M257" t="s">
         <v>152</v>
@@ -6328,7 +6328,7 @@
         <v>14</v>
       </c>
       <c r="L258" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M258" t="s">
         <v>152</v>
@@ -6339,16 +6339,16 @@
         <v>3</v>
       </c>
       <c r="H259" t="s">
+        <v>416</v>
+      </c>
+      <c r="I259" t="s">
+        <v>8</v>
+      </c>
+      <c r="L259" t="s">
         <v>417</v>
       </c>
-      <c r="I259" t="s">
-        <v>8</v>
-      </c>
-      <c r="L259" t="s">
+      <c r="M259" t="s">
         <v>418</v>
-      </c>
-      <c r="M259" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -6377,10 +6377,10 @@
         <v>8</v>
       </c>
       <c r="L260" t="s">
+        <v>419</v>
+      </c>
+      <c r="M260" t="s">
         <v>420</v>
-      </c>
-      <c r="M260" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -6391,10 +6391,10 @@
         <v>8</v>
       </c>
       <c r="L261" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M261" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -6423,10 +6423,10 @@
         <v>8</v>
       </c>
       <c r="L262" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M262" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -6437,10 +6437,10 @@
         <v>8</v>
       </c>
       <c r="L263" t="s">
+        <v>423</v>
+      </c>
+      <c r="M263" t="s">
         <v>424</v>
-      </c>
-      <c r="M263" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -6448,10 +6448,10 @@
         <v>14</v>
       </c>
       <c r="L264" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M264" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
@@ -6465,10 +6465,10 @@
         <v>8</v>
       </c>
       <c r="L265" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M265" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
@@ -6497,10 +6497,10 @@
         <v>8</v>
       </c>
       <c r="L266" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M266" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -6511,10 +6511,10 @@
         <v>8</v>
       </c>
       <c r="L267" t="s">
+        <v>428</v>
+      </c>
+      <c r="M267" t="s">
         <v>429</v>
-      </c>
-      <c r="M267" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -6543,10 +6543,10 @@
         <v>8</v>
       </c>
       <c r="L268" t="s">
+        <v>430</v>
+      </c>
+      <c r="M268" t="s">
         <v>431</v>
-      </c>
-      <c r="M268" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -6578,10 +6578,10 @@
         <v>8</v>
       </c>
       <c r="L269" t="s">
+        <v>432</v>
+      </c>
+      <c r="M269" t="s">
         <v>433</v>
-      </c>
-      <c r="M269" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -6592,10 +6592,10 @@
         <v>8</v>
       </c>
       <c r="L270" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M270" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -6606,10 +6606,10 @@
         <v>8</v>
       </c>
       <c r="L271" t="s">
+        <v>435</v>
+      </c>
+      <c r="M271" t="s">
         <v>436</v>
-      </c>
-      <c r="M271" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -6635,16 +6635,16 @@
         <v>6</v>
       </c>
       <c r="H272" t="s">
+        <v>437</v>
+      </c>
+      <c r="I272" t="s">
+        <v>8</v>
+      </c>
+      <c r="L272" t="s">
         <v>438</v>
       </c>
-      <c r="I272" t="s">
-        <v>8</v>
-      </c>
-      <c r="L272" t="s">
+      <c r="M272" t="s">
         <v>439</v>
-      </c>
-      <c r="M272" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -6655,7 +6655,7 @@
         <v>8</v>
       </c>
       <c r="L273" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M273" t="s">
         <v>116</v>
@@ -6669,10 +6669,10 @@
         <v>8</v>
       </c>
       <c r="L274" t="s">
+        <v>441</v>
+      </c>
+      <c r="M274" t="s">
         <v>442</v>
-      </c>
-      <c r="M274" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -6698,16 +6698,16 @@
         <v>6</v>
       </c>
       <c r="H275" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I275" t="s">
         <v>8</v>
       </c>
       <c r="L275" t="s">
+        <v>443</v>
+      </c>
+      <c r="M275" t="s">
         <v>444</v>
-      </c>
-      <c r="M275" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -6736,7 +6736,7 @@
         <v>8</v>
       </c>
       <c r="L276" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M276" t="s">
         <v>116</v>
@@ -6750,10 +6750,10 @@
         <v>8</v>
       </c>
       <c r="L277" t="s">
+        <v>446</v>
+      </c>
+      <c r="M277" t="s">
         <v>447</v>
-      </c>
-      <c r="M277" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -6764,10 +6764,10 @@
         <v>8</v>
       </c>
       <c r="L278" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M278" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -6799,10 +6799,10 @@
         <v>8</v>
       </c>
       <c r="L279" t="s">
+        <v>449</v>
+      </c>
+      <c r="M279" t="s">
         <v>450</v>
-      </c>
-      <c r="M279" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -6816,7 +6816,7 @@
         <v>8</v>
       </c>
       <c r="L280" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M280" t="s">
         <v>116</v>
@@ -6848,10 +6848,10 @@
         <v>8</v>
       </c>
       <c r="L281" t="s">
+        <v>452</v>
+      </c>
+      <c r="M281" t="s">
         <v>453</v>
-      </c>
-      <c r="M281" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -6862,7 +6862,7 @@
         <v>8</v>
       </c>
       <c r="L282" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M282" t="s">
         <v>116</v>
@@ -6876,10 +6876,10 @@
         <v>8</v>
       </c>
       <c r="L283" t="s">
+        <v>455</v>
+      </c>
+      <c r="M283" t="s">
         <v>456</v>
-      </c>
-      <c r="M283" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -6908,10 +6908,10 @@
         <v>8</v>
       </c>
       <c r="L284" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M284" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -6940,10 +6940,10 @@
         <v>8</v>
       </c>
       <c r="L285" t="s">
+        <v>458</v>
+      </c>
+      <c r="M285" t="s">
         <v>459</v>
-      </c>
-      <c r="M285" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -6957,10 +6957,10 @@
         <v>8</v>
       </c>
       <c r="L286" t="s">
+        <v>460</v>
+      </c>
+      <c r="M286" t="s">
         <v>461</v>
-      </c>
-      <c r="M286" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -6971,10 +6971,10 @@
         <v>8</v>
       </c>
       <c r="L287" t="s">
+        <v>462</v>
+      </c>
+      <c r="M287" t="s">
         <v>463</v>
-      </c>
-      <c r="M287" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -7003,10 +7003,10 @@
         <v>8</v>
       </c>
       <c r="L288" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M288" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -7020,7 +7020,7 @@
         <v>8</v>
       </c>
       <c r="L289" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M289" t="s">
         <v>116</v>
@@ -7034,10 +7034,10 @@
         <v>8</v>
       </c>
       <c r="L290" t="s">
+        <v>466</v>
+      </c>
+      <c r="M290" t="s">
         <v>467</v>
-      </c>
-      <c r="M290" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
@@ -7066,10 +7066,10 @@
         <v>8</v>
       </c>
       <c r="L291" t="s">
+        <v>468</v>
+      </c>
+      <c r="M291" t="s">
         <v>469</v>
-      </c>
-      <c r="M291" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
@@ -7080,10 +7080,10 @@
         <v>8</v>
       </c>
       <c r="L292" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M292" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -7115,7 +7115,7 @@
         <v>8</v>
       </c>
       <c r="L293" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M293" t="s">
         <v>116</v>
@@ -7147,7 +7147,7 @@
         <v>8</v>
       </c>
       <c r="L294" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M294" t="s">
         <v>116</v>
@@ -7164,7 +7164,7 @@
         <v>8</v>
       </c>
       <c r="L295" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M295" t="s">
         <v>116</v>
@@ -7178,7 +7178,7 @@
         <v>8</v>
       </c>
       <c r="L296" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M296" t="s">
         <v>116</v>
@@ -7213,7 +7213,7 @@
         <v>8</v>
       </c>
       <c r="L297" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M297" t="s">
         <v>116</v>
@@ -7227,7 +7227,7 @@
         <v>8</v>
       </c>
       <c r="L298" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M298" t="s">
         <v>116</v>
@@ -7262,7 +7262,7 @@
         <v>8</v>
       </c>
       <c r="L299" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M299" t="s">
         <v>116</v>
@@ -7294,10 +7294,10 @@
         <v>8</v>
       </c>
       <c r="L300" t="s">
+        <v>478</v>
+      </c>
+      <c r="M300" t="s">
         <v>479</v>
-      </c>
-      <c r="M300" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -7308,10 +7308,10 @@
         <v>8</v>
       </c>
       <c r="L301" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M301" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -7322,10 +7322,10 @@
         <v>8</v>
       </c>
       <c r="L302" t="s">
+        <v>481</v>
+      </c>
+      <c r="M302" t="s">
         <v>482</v>
-      </c>
-      <c r="M302" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -7354,10 +7354,10 @@
         <v>8</v>
       </c>
       <c r="L303" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M303" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -7371,10 +7371,10 @@
         <v>8</v>
       </c>
       <c r="L304" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M304" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -7403,10 +7403,10 @@
         <v>8</v>
       </c>
       <c r="L305" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M305" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -7435,10 +7435,10 @@
         <v>8</v>
       </c>
       <c r="L306" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M306" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -7449,10 +7449,10 @@
         <v>8</v>
       </c>
       <c r="L307" t="s">
+        <v>487</v>
+      </c>
+      <c r="M307" t="s">
         <v>488</v>
-      </c>
-      <c r="M307" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -7463,10 +7463,10 @@
         <v>8</v>
       </c>
       <c r="L308" t="s">
+        <v>489</v>
+      </c>
+      <c r="M308" t="s">
         <v>490</v>
-      </c>
-      <c r="M308" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -7495,10 +7495,10 @@
         <v>8</v>
       </c>
       <c r="L309" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M309" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -7512,7 +7512,7 @@
         <v>8</v>
       </c>
       <c r="L310" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M310" t="s">
         <v>116</v>
@@ -7526,7 +7526,7 @@
         <v>8</v>
       </c>
       <c r="L311" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M311" t="s">
         <v>116</v>
@@ -7543,7 +7543,7 @@
         <v>135</v>
       </c>
       <c r="L312" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M312" t="s">
         <v>137</v>
@@ -7557,7 +7557,7 @@
         <v>8</v>
       </c>
       <c r="L313" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M313" t="s">
         <v>116</v>
@@ -7592,7 +7592,7 @@
         <v>8</v>
       </c>
       <c r="L314" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M314" t="s">
         <v>116</v>
@@ -7609,10 +7609,10 @@
         <v>8</v>
       </c>
       <c r="L315" t="s">
+        <v>497</v>
+      </c>
+      <c r="M315" t="s">
         <v>498</v>
-      </c>
-      <c r="M315" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
@@ -7641,10 +7641,10 @@
         <v>8</v>
       </c>
       <c r="L316" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M316" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
@@ -7673,10 +7673,10 @@
         <v>8</v>
       </c>
       <c r="L317" t="s">
+        <v>500</v>
+      </c>
+      <c r="M317" t="s">
         <v>501</v>
-      </c>
-      <c r="M317" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
@@ -7687,10 +7687,10 @@
         <v>8</v>
       </c>
       <c r="L318" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M318" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -7701,10 +7701,10 @@
         <v>8</v>
       </c>
       <c r="L319" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M319" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -7733,10 +7733,10 @@
         <v>8</v>
       </c>
       <c r="L320" t="s">
+        <v>504</v>
+      </c>
+      <c r="M320" t="s">
         <v>505</v>
-      </c>
-      <c r="M320" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -7744,16 +7744,16 @@
         <v>3</v>
       </c>
       <c r="H321" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I321" t="s">
         <v>8</v>
       </c>
       <c r="L321" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M321" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -7782,10 +7782,10 @@
         <v>8</v>
       </c>
       <c r="L322" t="s">
+        <v>507</v>
+      </c>
+      <c r="M322" t="s">
         <v>508</v>
-      </c>
-      <c r="M322" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -7796,10 +7796,10 @@
         <v>8</v>
       </c>
       <c r="L323" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M323" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -7810,10 +7810,10 @@
         <v>8</v>
       </c>
       <c r="L324" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M324" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -7821,16 +7821,16 @@
         <v>3</v>
       </c>
       <c r="H325" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I325" t="s">
         <v>8</v>
       </c>
       <c r="L325" t="s">
+        <v>511</v>
+      </c>
+      <c r="M325" t="s">
         <v>512</v>
-      </c>
-      <c r="M325" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -7859,10 +7859,10 @@
         <v>8</v>
       </c>
       <c r="L326" t="s">
+        <v>513</v>
+      </c>
+      <c r="M326" t="s">
         <v>514</v>
-      </c>
-      <c r="M326" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -7891,10 +7891,10 @@
         <v>8</v>
       </c>
       <c r="L327" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M327" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -7905,10 +7905,10 @@
         <v>8</v>
       </c>
       <c r="L328" t="s">
+        <v>516</v>
+      </c>
+      <c r="M328" t="s">
         <v>517</v>
-      </c>
-      <c r="M328" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -7940,10 +7940,10 @@
         <v>8</v>
       </c>
       <c r="L329" t="s">
+        <v>518</v>
+      </c>
+      <c r="M329" t="s">
         <v>519</v>
-      </c>
-      <c r="M329" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -7954,7 +7954,7 @@
         <v>8</v>
       </c>
       <c r="L330" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M330" t="s">
         <v>116</v>
@@ -7989,7 +7989,7 @@
         <v>8</v>
       </c>
       <c r="L331" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M331" t="s">
         <v>116</v>
@@ -8024,7 +8024,7 @@
         <v>8</v>
       </c>
       <c r="L332" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M332" t="s">
         <v>116</v>
@@ -8038,10 +8038,10 @@
         <v>8</v>
       </c>
       <c r="L333" t="s">
+        <v>523</v>
+      </c>
+      <c r="M333" t="s">
         <v>524</v>
-      </c>
-      <c r="M333" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -8067,16 +8067,16 @@
         <v>6</v>
       </c>
       <c r="H334" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I334" t="s">
         <v>8</v>
       </c>
       <c r="L334" t="s">
+        <v>525</v>
+      </c>
+      <c r="M334" t="s">
         <v>526</v>
-      </c>
-      <c r="M334" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -8087,10 +8087,10 @@
         <v>8</v>
       </c>
       <c r="L335" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M335" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -8101,10 +8101,10 @@
         <v>8</v>
       </c>
       <c r="L336" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M336" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -8133,10 +8133,10 @@
         <v>8</v>
       </c>
       <c r="L337" t="s">
+        <v>529</v>
+      </c>
+      <c r="M337" t="s">
         <v>530</v>
-      </c>
-      <c r="M337" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -8162,16 +8162,16 @@
         <v>6</v>
       </c>
       <c r="H338" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I338" t="s">
         <v>8</v>
       </c>
       <c r="L338" t="s">
+        <v>531</v>
+      </c>
+      <c r="M338" t="s">
         <v>532</v>
-      </c>
-      <c r="M338" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -8182,10 +8182,10 @@
         <v>8</v>
       </c>
       <c r="L339" t="s">
+        <v>533</v>
+      </c>
+      <c r="M339" t="s">
         <v>534</v>
-      </c>
-      <c r="M339" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
@@ -8214,10 +8214,10 @@
         <v>8</v>
       </c>
       <c r="L340" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M340" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -8231,10 +8231,10 @@
         <v>8</v>
       </c>
       <c r="L341" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M341" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
@@ -8263,10 +8263,10 @@
         <v>8</v>
       </c>
       <c r="L342" t="s">
+        <v>537</v>
+      </c>
+      <c r="M342" t="s">
         <v>538</v>
-      </c>
-      <c r="M342" t="s">
-        <v>539</v>
       </c>
     </row>
   </sheetData>
